--- a/data/Bradyrhizobium_StrainFinder_Info.xlsx
+++ b/data/Bradyrhizobium_StrainFinder_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cliftonbdemesquita/Documents/GitHub/AussieStrains/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF46B4B-75C1-FF42-B16A-F11F7690A267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E59BEF0-9965-F349-AE59-669E71643736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35860" yWindow="3360" windowWidth="10000" windowHeight="20640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17200" yWindow="500" windowWidth="35840" windowHeight="20640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="121">
   <si>
     <t>SampleID</t>
   </si>
@@ -217,13 +217,184 @@
     <t>Status</t>
   </si>
   <si>
-    <t>TopStrain</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
     <t>TopStrainName</t>
+  </si>
+  <si>
+    <t>Brady_7085</t>
+  </si>
+  <si>
+    <t>Brady_7083</t>
+  </si>
+  <si>
+    <t>Brady_401656</t>
+  </si>
+  <si>
+    <t>Brady_401658</t>
+  </si>
+  <si>
+    <t>Brady_401660</t>
+  </si>
+  <si>
+    <t>Brady_401652</t>
+  </si>
+  <si>
+    <t>Brady_401577</t>
+  </si>
+  <si>
+    <t>Brady_401579</t>
+  </si>
+  <si>
+    <t>Brady_401566</t>
+  </si>
+  <si>
+    <t>Brady_401552</t>
+  </si>
+  <si>
+    <t>Brady_401567</t>
+  </si>
+  <si>
+    <t>Brady_401588</t>
+  </si>
+  <si>
+    <t>Brady_401589</t>
+  </si>
+  <si>
+    <t>Brady_401576</t>
+  </si>
+  <si>
+    <t>Brady_401564</t>
+  </si>
+  <si>
+    <t>Brady_401563</t>
+  </si>
+  <si>
+    <t>Brady_401554</t>
+  </si>
+  <si>
+    <t>Brady_401586</t>
+  </si>
+  <si>
+    <t>Brady_401568</t>
+  </si>
+  <si>
+    <t>Brady_401548</t>
+  </si>
+  <si>
+    <t>Brady_401550</t>
+  </si>
+  <si>
+    <t>Brady_401553</t>
+  </si>
+  <si>
+    <t>Brady_401556</t>
+  </si>
+  <si>
+    <t>Brady_401557</t>
+  </si>
+  <si>
+    <t>Brady_401558</t>
+  </si>
+  <si>
+    <t>Brady_401560</t>
+  </si>
+  <si>
+    <t>Brady_401561</t>
+  </si>
+  <si>
+    <t>Brady_138538</t>
+  </si>
+  <si>
+    <t>Brady_401593</t>
+  </si>
+  <si>
+    <t>Brady_401571</t>
+  </si>
+  <si>
+    <t>Brady_401591</t>
+  </si>
+  <si>
+    <t>Brady_401592</t>
+  </si>
+  <si>
+    <t>Brady_401580</t>
+  </si>
+  <si>
+    <t>Brady_401594</t>
+  </si>
+  <si>
+    <t>Brady_401604</t>
+  </si>
+  <si>
+    <t>Brady_401581</t>
+  </si>
+  <si>
+    <t>Brady_401582</t>
+  </si>
+  <si>
+    <t>Brady_401606</t>
+  </si>
+  <si>
+    <t>Brady_401595</t>
+  </si>
+  <si>
+    <t>Brady_401636</t>
+  </si>
+  <si>
+    <t>Brady_401583</t>
+  </si>
+  <si>
+    <t>Brady_401570</t>
+  </si>
+  <si>
+    <t>Brady_401573</t>
+  </si>
+  <si>
+    <t>Brady_401569</t>
+  </si>
+  <si>
+    <t>Brady_401624</t>
+  </si>
+  <si>
+    <t>Brady_401640</t>
+  </si>
+  <si>
+    <t>Brady_401614</t>
+  </si>
+  <si>
+    <t>Brady_401616</t>
+  </si>
+  <si>
+    <t>Brady_401600</t>
+  </si>
+  <si>
+    <t>Brady_401608</t>
+  </si>
+  <si>
+    <t>Brady_401632</t>
+  </si>
+  <si>
+    <t>Brady_401648</t>
+  </si>
+  <si>
+    <t>Brady_12816</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Strain1</t>
+  </si>
+  <si>
+    <t>Strain2</t>
+  </si>
+  <si>
+    <t>Strain3</t>
+  </si>
+  <si>
+    <t>Strain4</t>
   </si>
 </sst>
 </file>
@@ -609,11 +780,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -628,12 +799,12 @@
     <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="53.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="1"/>
+    <col min="11" max="14" width="14.6640625" style="2" customWidth="1"/>
+    <col min="15" max="16" width="53.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,13 +836,25 @@
         <v>60</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -700,17 +883,29 @@
         <v>315</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K2" s="2">
         <v>55.2</v>
       </c>
-      <c r="L2" s="1" t="str">
+      <c r="L2" s="2">
+        <v>27.7</v>
+      </c>
+      <c r="M2" s="2">
+        <v>12.02</v>
+      </c>
+      <c r="N2" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O2" s="1" t="str">
         <f>_xlfn.CONCAT("Brady_",A2,"-Reads_1-Strain_1.Genome")</f>
         <v>Brady_7085-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -739,17 +934,29 @@
         <v>336</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K3" s="2">
         <v>55.2</v>
       </c>
-      <c r="L3" s="1" t="str">
-        <f t="shared" ref="L3:L54" si="0">_xlfn.CONCAT("Brady_",A3,"-Reads_1-Strain_1.Genome")</f>
+      <c r="L3" s="2">
+        <v>27.7</v>
+      </c>
+      <c r="M3" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="N3" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O3" s="1" t="str">
+        <f t="shared" ref="O3:O54" si="0">_xlfn.CONCAT("Brady_",A3,"-Reads_1-Strain_1.Genome")</f>
         <v>Brady_7083-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P3" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -778,17 +985,29 @@
         <v>259</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K4" s="2">
         <v>54.7</v>
       </c>
-      <c r="L4" s="1" t="str">
+      <c r="L4" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="M4" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="N4" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="O4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401656-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -817,17 +1036,29 @@
         <v>326</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K5" s="2">
         <v>55</v>
       </c>
-      <c r="L5" s="1" t="str">
+      <c r="L5" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="M5" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="O5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401658-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -856,17 +1087,29 @@
         <v>270</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K6" s="2">
         <v>54.7</v>
       </c>
-      <c r="L6" s="1" t="str">
+      <c r="L6" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="M6" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="N6" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="O6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401660-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P6" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -895,17 +1138,29 @@
         <v>319</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K7" s="2">
         <v>54.7</v>
       </c>
-      <c r="L7" s="1" t="str">
+      <c r="L7" s="2">
+        <v>27.7</v>
+      </c>
+      <c r="M7" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="N7" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="O7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401652-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -934,17 +1189,29 @@
         <v>321</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K8" s="2">
         <v>54.9</v>
       </c>
-      <c r="L8" s="1" t="str">
+      <c r="L8" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="M8" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="O8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401577-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -973,17 +1240,29 @@
         <v>271</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K9" s="2">
         <v>55.1</v>
       </c>
-      <c r="L9" s="1" t="str">
+      <c r="L9" s="2">
+        <v>27.4</v>
+      </c>
+      <c r="M9" s="2">
+        <v>12</v>
+      </c>
+      <c r="N9" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="O9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401579-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>401566</v>
       </c>
@@ -1012,17 +1291,29 @@
         <v>270</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K10" s="2">
         <v>54.9</v>
       </c>
-      <c r="L10" s="1" t="str">
+      <c r="L10" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="M10" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="O10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401566-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P10" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1051,17 +1342,29 @@
         <v>364</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K11" s="2">
         <v>54.9</v>
       </c>
-      <c r="L11" s="1" t="str">
+      <c r="L11" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="M11" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="N11" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="O11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401552-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P11" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>401567</v>
       </c>
@@ -1090,17 +1393,29 @@
         <v>348</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K12" s="2">
         <v>54.9</v>
       </c>
-      <c r="L12" s="1" t="str">
+      <c r="L12" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="M12" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="N12" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="O12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401567-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P12" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1129,17 +1444,29 @@
         <v>336</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K13" s="2">
         <v>54.6</v>
       </c>
-      <c r="L13" s="1" t="str">
+      <c r="L13" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="M13" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="N13" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="O13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401588-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P13" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1168,17 +1495,29 @@
         <v>279</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K14" s="2">
         <v>54.2</v>
       </c>
-      <c r="L14" s="1" t="str">
+      <c r="L14" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="M14" s="2">
+        <v>12.4</v>
+      </c>
+      <c r="N14" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="O14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401589-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P14" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1207,17 +1546,29 @@
         <v>279</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K15" s="2">
         <v>54.9</v>
       </c>
-      <c r="L15" s="1" t="str">
+      <c r="L15" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="M15" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="N15" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="O15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401576-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P15" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1246,17 +1597,29 @@
         <v>352</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K16" s="2">
         <v>55.1</v>
       </c>
-      <c r="L16" s="1" t="str">
+      <c r="L16" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="M16" s="2">
+        <v>12</v>
+      </c>
+      <c r="N16" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="O16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401564-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P16" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1285,17 +1648,29 @@
         <v>310</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K17" s="2">
         <v>55</v>
       </c>
-      <c r="L17" s="1" t="str">
+      <c r="L17" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="M17" s="2">
+        <v>12</v>
+      </c>
+      <c r="N17" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="O17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401563-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P17" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1324,17 +1699,29 @@
         <v>325</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K18" s="2">
         <v>54.8</v>
       </c>
-      <c r="L18" s="1" t="str">
+      <c r="L18" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="M18" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="N18" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="O18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401554-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P18" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,17 +1750,29 @@
         <v>297</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K19" s="2">
         <v>54.4</v>
       </c>
-      <c r="L19" s="1" t="str">
+      <c r="L19" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="M19" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="N19" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="O19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401586-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P19" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -1402,17 +1801,29 @@
         <v>258</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K20" s="2">
         <v>54.8</v>
       </c>
-      <c r="L20" s="1" t="str">
+      <c r="L20" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="M20" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="N20" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="O20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401568-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P20" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -1441,17 +1852,29 @@
         <v>269</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K21" s="2">
         <v>54.6</v>
       </c>
-      <c r="L21" s="1" t="str">
+      <c r="L21" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="M21" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="N21" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="O21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401548-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P21" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -1480,17 +1903,29 @@
         <v>319</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K22" s="2">
         <v>54.5</v>
       </c>
-      <c r="L22" s="1" t="str">
+      <c r="L22" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="M22" s="2">
+        <v>12.4</v>
+      </c>
+      <c r="N22" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="O22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401550-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P22" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -1519,17 +1954,29 @@
         <v>297</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K23" s="2">
         <v>54.3</v>
       </c>
-      <c r="L23" s="1" t="str">
+      <c r="L23" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="M23" s="2">
+        <v>12.4</v>
+      </c>
+      <c r="N23" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="O23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401553-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P23" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -1558,17 +2005,29 @@
         <v>267</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K24" s="2">
         <v>54.5</v>
       </c>
-      <c r="L24" s="1" t="str">
+      <c r="L24" s="2">
+        <v>27.4</v>
+      </c>
+      <c r="M24" s="2">
+        <v>12.4</v>
+      </c>
+      <c r="N24" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="O24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401556-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P24" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -1597,17 +2056,29 @@
         <v>272</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K25" s="2">
         <v>54.6</v>
       </c>
-      <c r="L25" s="1" t="str">
+      <c r="L25" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="M25" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="N25" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="O25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401557-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P25" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -1636,17 +2107,29 @@
         <v>290</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K26" s="2">
         <v>54.7</v>
       </c>
-      <c r="L26" s="1" t="str">
+      <c r="L26" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="M26" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="N26" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="O26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401558-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P26" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
@@ -1675,17 +2158,29 @@
         <v>326</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K27" s="2">
         <v>54.8</v>
       </c>
-      <c r="L27" s="1" t="str">
+      <c r="L27" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="M27" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="N27" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="O27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401560-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P27" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -1714,17 +2209,29 @@
         <v>277</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K28" s="2">
         <v>54.9</v>
       </c>
-      <c r="L28" s="1" t="str">
+      <c r="L28" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="M28" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="N28" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="O28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401561-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P28" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -1753,17 +2260,29 @@
         <v>269</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K29" s="2">
         <v>54</v>
       </c>
-      <c r="L29" s="1" t="str">
+      <c r="L29" s="2">
+        <v>27.7</v>
+      </c>
+      <c r="M29" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="N29" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="O29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_138538-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P29" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -1792,17 +2311,29 @@
         <v>309</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K30" s="2">
         <v>54.7</v>
       </c>
-      <c r="L30" s="1" t="str">
+      <c r="L30" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="M30" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="N30" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="O30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401593-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P30" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -1831,17 +2362,29 @@
         <v>337</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K31" s="2">
         <v>55.2</v>
       </c>
-      <c r="L31" s="1" t="str">
+      <c r="L31" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="M31" s="2">
+        <v>12</v>
+      </c>
+      <c r="N31" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="O31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401571-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P31" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -1870,17 +2413,29 @@
         <v>347</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K32" s="2">
         <v>55.2</v>
       </c>
-      <c r="L32" s="1" t="str">
+      <c r="L32" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="M32" s="2">
+        <v>12</v>
+      </c>
+      <c r="N32" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="O32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401591-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P32" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
@@ -1909,17 +2464,29 @@
         <v>379</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K33" s="2">
         <v>55.1</v>
       </c>
-      <c r="L33" s="1" t="str">
+      <c r="L33" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="M33" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="N33" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="O33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401592-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P33" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -1948,17 +2515,29 @@
         <v>307</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K34" s="2">
         <v>55</v>
       </c>
-      <c r="L34" s="1" t="str">
+      <c r="L34" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="M34" s="2">
+        <v>12</v>
+      </c>
+      <c r="N34" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="O34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401580-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P34" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
@@ -1987,17 +2566,29 @@
         <v>313</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K35" s="2">
         <v>54.9</v>
       </c>
-      <c r="L35" s="1" t="str">
+      <c r="L35" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="M35" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="N35" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="O35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401594-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P35" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -2026,17 +2617,29 @@
         <v>316</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K36" s="2">
         <v>55.1</v>
       </c>
-      <c r="L36" s="1" t="str">
+      <c r="L36" s="2">
+        <v>27.7</v>
+      </c>
+      <c r="M36" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="N36" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401604-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P36" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
@@ -2065,17 +2668,29 @@
         <v>315</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K37" s="2">
         <v>54.6</v>
       </c>
-      <c r="L37" s="1" t="str">
+      <c r="L37" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="M37" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="N37" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="O37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401581-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P37" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -2104,17 +2719,29 @@
         <v>351</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K38" s="2">
         <v>54.8</v>
       </c>
-      <c r="L38" s="1" t="str">
+      <c r="L38" s="2">
+        <v>27.7</v>
+      </c>
+      <c r="M38" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="N38" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="O38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401582-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P38" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -2143,17 +2770,29 @@
         <v>324</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K39" s="2">
         <v>56.4</v>
       </c>
-      <c r="L39" s="1" t="str">
+      <c r="L39" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="M39" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="N39" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="O39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401606-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P39" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
@@ -2182,17 +2821,29 @@
         <v>309</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K40" s="2">
         <v>54.6</v>
       </c>
-      <c r="L40" s="1" t="str">
+      <c r="L40" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="M40" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="N40" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="O40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401595-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P40" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
@@ -2221,17 +2872,29 @@
         <v>359</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K41" s="2">
         <v>56</v>
       </c>
-      <c r="L41" s="1" t="str">
+      <c r="L41" s="2">
+        <v>27.7</v>
+      </c>
+      <c r="M41" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="N41" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401636-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P41" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
@@ -2260,17 +2923,29 @@
         <v>322</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K42" s="2">
         <v>54.7</v>
       </c>
-      <c r="L42" s="1" t="str">
+      <c r="L42" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="M42" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="N42" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="O42" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401583-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P42" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -2299,17 +2974,29 @@
         <v>342</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K43" s="2">
         <v>54.9</v>
       </c>
-      <c r="L43" s="1" t="str">
+      <c r="L43" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="M43" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="N43" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="O43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401570-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P43" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
@@ -2338,17 +3025,29 @@
         <v>324</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K44" s="2">
         <v>54.9</v>
       </c>
-      <c r="L44" s="1" t="str">
+      <c r="L44" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="M44" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="N44" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="O44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401573-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P44" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -2377,17 +3076,29 @@
         <v>339</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K45" s="2">
         <v>55</v>
       </c>
-      <c r="L45" s="1" t="str">
+      <c r="L45" s="2">
+        <v>27.7</v>
+      </c>
+      <c r="M45" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="N45" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="O45" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401569-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P45" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
@@ -2416,17 +3127,29 @@
         <v>328</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K46" s="2">
         <v>55.2</v>
       </c>
-      <c r="L46" s="1" t="str">
+      <c r="L46" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="M46" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="N46" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="O46" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401624-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P46" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -2455,17 +3178,29 @@
         <v>326</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K47" s="2">
         <v>56.3</v>
       </c>
-      <c r="L47" s="1" t="str">
+      <c r="L47" s="2">
+        <v>27.4</v>
+      </c>
+      <c r="M47" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="N47" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="O47" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401640-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P47" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
@@ -2494,17 +3229,29 @@
         <v>331</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K48" s="2">
         <v>54.9</v>
       </c>
-      <c r="L48" s="1" t="str">
+      <c r="L48" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="M48" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="N48" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="O48" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401614-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P48" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -2533,17 +3280,29 @@
         <v>359</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K49" s="2">
         <v>54.6</v>
       </c>
-      <c r="L49" s="1" t="str">
+      <c r="L49" s="2">
+        <v>27.7</v>
+      </c>
+      <c r="M49" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="N49" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="O49" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401616-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P49" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
@@ -2572,17 +3331,29 @@
         <v>326</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K50" s="2">
         <v>54.9</v>
       </c>
-      <c r="L50" s="1" t="str">
+      <c r="L50" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="M50" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="N50" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="O50" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401600-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P50" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -2611,17 +3382,29 @@
         <v>348</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K51" s="2">
         <v>56</v>
       </c>
-      <c r="L51" s="1" t="str">
+      <c r="L51" s="2">
+        <v>27.8</v>
+      </c>
+      <c r="M51" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="N51" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="O51" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401608-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P51" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
@@ -2650,17 +3433,29 @@
         <v>360</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K52" s="2">
         <v>54.9</v>
       </c>
-      <c r="L52" s="1" t="str">
+      <c r="L52" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="M52" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="N52" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="O52" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401632-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P52" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -2689,17 +3484,29 @@
         <v>356</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K53" s="2">
         <v>54.6</v>
       </c>
-      <c r="L53" s="1" t="str">
+      <c r="L53" s="2">
+        <v>27.7</v>
+      </c>
+      <c r="M53" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="N53" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="O53" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_401648-Reads_1-Strain_1.Genome</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P53" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
@@ -2728,14 +3535,26 @@
         <v>365</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K54" s="2">
         <v>54.5</v>
       </c>
-      <c r="L54" s="1" t="str">
+      <c r="L54" s="2">
+        <v>27.8</v>
+      </c>
+      <c r="M54" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="N54" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="O54" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Brady_12816-Reads_1-Strain_1.Genome</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
